--- a/data/current_expense_1819.xlsx
+++ b/data/current_expense_1819.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvelasquez\AppData\Local\Adobe\Contribute 6.5\en_US\Sites\Site1\ds\fd\ec\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexs\Documents\dsir-1031\projects\project_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2708B45-4699-4E97-BAF2-71E5310D9B5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6A9BA5-C229-4A67-9994-E9674B87129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6022" yWindow="5663" windowWidth="22695" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="District (by CDS)" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -6173,10 +6184,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -6204,7 +6215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
@@ -6214,7 +6225,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
